--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_AppropriationGroupProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_AppropriationGroupProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC56498E-9500-4361-BE7A-128D66352B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1240F6B3-9787-4D59-A86B-AD628F495B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="760" windowWidth="18780" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>checkAccessibility</t>
   </si>
   <si>
-    <t>AddNewProfile_GaapCategoryProfile</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>ApproGrp</t>
+  </si>
+  <si>
+    <t>AddNewProfile_AppropriationGroupProfile</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" activeCellId="1" sqref="B2 C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -594,7 +594,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -603,10 +603,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -620,10 +620,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -737,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>17</v>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>22</v>
